--- a/public/Daily Reports In Month Of 2024.xlsx
+++ b/public/Daily Reports In Month Of 2024.xlsx
@@ -425,7 +425,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9685.0</v>
+        <v>31225.0</v>
       </c>
     </row>
   </sheetData>
